--- a/Datasets/Animals/ChiSquare.xlsx
+++ b/Datasets/Animals/ChiSquare.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>December</t>
   </si>
@@ -62,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -134,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -151,16 +151,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,11 +201,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Subset!$B$1</c:f>
+              <c:f>Subset!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NPR1</c:v>
+                  <c:v>December</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -223,101 +220,37 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Subset!$A$2:$A$5</c:f>
+              <c:f>Subset!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>December</c:v>
+                  <c:v>NPR1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>January</c:v>
+                  <c:v>NPR2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>February </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>March</c:v>
+                  <c:v>NPR3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Subset!$B$2:$B$5</c:f>
+              <c:f>Subset!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,11 +266,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Subset!$C$1</c:f>
+              <c:f>Subset!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NPR2</c:v>
+                  <c:v>January</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -352,101 +285,37 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Subset!$A$2:$A$5</c:f>
+              <c:f>Subset!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>December</c:v>
+                  <c:v>NPR1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>January</c:v>
+                  <c:v>NPR2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>February </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>March</c:v>
+                  <c:v>NPR3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Subset!$C$2:$C$5</c:f>
+              <c:f>Subset!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -462,11 +331,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Subset!$D$1</c:f>
+              <c:f>Subset!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NPR3</c:v>
+                  <c:v>February </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -481,101 +350,37 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Subset!$A$2:$A$5</c:f>
+              <c:f>Subset!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>December</c:v>
+                  <c:v>NPR1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>January</c:v>
+                  <c:v>NPR2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>February </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>March</c:v>
+                  <c:v>NPR3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Subset!$D$2:$D$5</c:f>
+              <c:f>Subset!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,6 +388,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6B09-49EC-951C-6F5A59906F4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Subset!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Subset!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>NPR1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NPR2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NPR3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Subset!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8102-4B61-B854-046A531A447D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -795,11 +665,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>All!$A$5</c:f>
+              <c:f>All!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NPR1</c:v>
+                  <c:v>December</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -816,41 +686,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>All!$B$4:$E$4</c:f>
+              <c:f>All!$A$5:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>December</c:v>
+                  <c:v>NPR1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>January</c:v>
+                  <c:v>NPR2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>February </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>March</c:v>
+                  <c:v>NPR3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$5:$E$5</c:f>
+              <c:f>All!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,11 +730,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>All!$A$6</c:f>
+              <c:f>All!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NPR2</c:v>
+                  <c:v>January</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -887,41 +751,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>All!$B$4:$E$4</c:f>
+              <c:f>All!$A$5:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>December</c:v>
+                  <c:v>NPR1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>January</c:v>
+                  <c:v>NPR2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>February </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>March</c:v>
+                  <c:v>NPR3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$6:$E$6</c:f>
+              <c:f>All!$C$5:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,11 +795,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>All!$A$7</c:f>
+              <c:f>All!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NPR3</c:v>
+                  <c:v>February </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -958,41 +816,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>All!$B$4:$E$4</c:f>
+              <c:f>All!$A$5:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>December</c:v>
+                  <c:v>NPR1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>January</c:v>
+                  <c:v>NPR2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>February </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>March</c:v>
+                  <c:v>NPR3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$7:$E$7</c:f>
+              <c:f>All!$D$5:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,6 +852,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AC82-496B-8569-2A1081B80BC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>All!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>NPR1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NPR2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NPR3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AC82-496B-8569-2A1081B80BC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1023,62 +940,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Month</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1087,10 +948,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1103,10 +961,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1139,10 +994,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1172,10 +1024,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1193,7 +1042,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1204,10 +1055,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1231,7 +1079,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37114113922318226"/>
+          <c:y val="0.92268807452157564"/>
+          <c:w val="0.30406754196281666"/>
+          <c:h val="5.2447906699237885E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1247,10 +1104,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1285,7 +1139,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2839,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2873,16 +2731,16 @@
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>3.2570000000000002E-2</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>0.30149999999999999</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>8.2360000000000001E-9</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <v>2.6620000000000002E-4</v>
       </c>
     </row>
@@ -2891,16 +2749,16 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2952,6 +2810,74 @@
         <v>61</v>
       </c>
       <c r="E7" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>13</v>
+      </c>
+      <c r="C37" s="5">
+        <v>33</v>
+      </c>
+      <c r="D37" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5">
+        <v>13</v>
+      </c>
+      <c r="C38" s="5">
+        <v>40</v>
+      </c>
+      <c r="D38" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5">
+        <v>23</v>
+      </c>
+      <c r="C39" s="5">
+        <v>41</v>
+      </c>
+      <c r="D39" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5">
+        <v>28</v>
+      </c>
+      <c r="C40" s="5">
+        <v>27</v>
+      </c>
+      <c r="D40" s="5">
         <v>23</v>
       </c>
     </row>
